--- a/dataanalysis/data/predictions/1600/09231503_1505.xlsx
+++ b/dataanalysis/data/predictions/1600/09231503_1505.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="141">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-23</t>
   </si>
   <si>
@@ -434,12 +437,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -797,13 +794,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH57"/>
+  <dimension ref="A1:AI57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -906,19 +903,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300007</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>2.23</v>
@@ -936,7 +936,7 @@
         <v>321501.98</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K2">
         <v>11</v>
@@ -978,10 +978,25 @@
         <v>0.98</v>
       </c>
       <c r="X2" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y2">
+        <v>3.88</v>
+      </c>
+      <c r="Z2">
+        <v>67.5</v>
+      </c>
+      <c r="AA2">
+        <v>4.33</v>
       </c>
       <c r="AC2" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>1</v>
@@ -989,22 +1004,25 @@
       <c r="AG2">
         <v>5.548287868499756</v>
       </c>
-      <c r="AH2" t="s">
-        <v>140</v>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300111</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -1022,7 +1040,7 @@
         <v>274962.76</v>
       </c>
       <c r="J3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3">
         <v>8</v>
@@ -1064,10 +1082,25 @@
         <v>-6.02</v>
       </c>
       <c r="X3" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y3">
+        <v>20.03</v>
+      </c>
+      <c r="Z3">
+        <v>8.57</v>
+      </c>
+      <c r="AA3">
+        <v>20.03</v>
       </c>
       <c r="AC3" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1075,22 +1108,25 @@
       <c r="AG3">
         <v>70.90631866455078</v>
       </c>
-      <c r="AH3" t="s">
-        <v>141</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300115</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-3.26</v>
@@ -1108,7 +1144,7 @@
         <v>802092.8</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K4">
         <v>4</v>
@@ -1150,10 +1186,25 @@
         <v>-0.36</v>
       </c>
       <c r="X4" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="Y4">
+        <v>8.93</v>
+      </c>
+      <c r="Z4">
+        <v>41.2</v>
+      </c>
+      <c r="AA4">
+        <v>12.91</v>
       </c>
       <c r="AC4" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1161,22 +1212,25 @@
       <c r="AG4">
         <v>4.044474601745605</v>
       </c>
-      <c r="AH4" t="s">
-        <v>141</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300139</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>2.06</v>
@@ -1194,7 +1248,7 @@
         <v>235844.92</v>
       </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K5">
         <v>11</v>
@@ -1236,10 +1290,25 @@
         <v>-0.5600000000000001</v>
       </c>
       <c r="X5" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="Y5">
+        <v>0.47</v>
+      </c>
+      <c r="Z5">
+        <v>28.5</v>
+      </c>
+      <c r="AA5">
+        <v>2.93</v>
       </c>
       <c r="AC5" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1247,22 +1316,25 @@
       <c r="AG5">
         <v>0.6199179291725159</v>
       </c>
-      <c r="AH5" t="s">
-        <v>141</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300207</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>6.48</v>
@@ -1280,7 +1352,7 @@
         <v>504343.71</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K6">
         <v>13</v>
@@ -1322,10 +1394,25 @@
         <v>0.46</v>
       </c>
       <c r="X6" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Y6">
+        <v>3.43</v>
+      </c>
+      <c r="Z6">
+        <v>33.52</v>
+      </c>
+      <c r="AA6">
+        <v>4.59</v>
       </c>
       <c r="AC6" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1333,22 +1420,25 @@
       <c r="AG6">
         <v>2.908791542053223</v>
       </c>
-      <c r="AH6" t="s">
-        <v>141</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300236</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>1.15</v>
@@ -1366,7 +1456,7 @@
         <v>104195.1</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1407,8 +1497,23 @@
       <c r="W7">
         <v>0.27</v>
       </c>
+      <c r="Y7">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="Z7">
+        <v>67.3</v>
+      </c>
+      <c r="AA7">
+        <v>15.68</v>
+      </c>
       <c r="AC7" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1416,22 +1521,25 @@
       <c r="AG7">
         <v>-5.289117813110352</v>
       </c>
-      <c r="AH7" t="s">
-        <v>141</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300250</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>19.99</v>
@@ -1449,7 +1557,7 @@
         <v>213808.67</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1491,10 +1599,25 @@
         <v>-1.53</v>
       </c>
       <c r="X8" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y8">
+        <v>1.75</v>
+      </c>
+      <c r="Z8">
+        <v>28.56</v>
+      </c>
+      <c r="AA8">
+        <v>8.630000000000001</v>
       </c>
       <c r="AC8" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1502,22 +1625,25 @@
       <c r="AG8">
         <v>-6.338212490081787</v>
       </c>
-      <c r="AH8" t="s">
-        <v>141</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300274</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>4.6</v>
@@ -1535,7 +1661,7 @@
         <v>1703731</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K9">
         <v>15</v>
@@ -1577,10 +1703,25 @@
         <v>0.13</v>
       </c>
       <c r="X9" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y9">
+        <v>7.43</v>
+      </c>
+      <c r="Z9">
+        <v>156</v>
+      </c>
+      <c r="AA9">
+        <v>8.68</v>
       </c>
       <c r="AC9" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1588,22 +1729,25 @@
       <c r="AG9">
         <v>3.917580127716064</v>
       </c>
-      <c r="AH9" t="s">
-        <v>141</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300308</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>3.9</v>
@@ -1621,7 +1765,7 @@
         <v>2327826.02</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K10">
         <v>51</v>
@@ -1663,10 +1807,25 @@
         <v>0.03</v>
       </c>
       <c r="X10" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="Y10">
+        <v>-2.48</v>
+      </c>
+      <c r="Z10">
+        <v>435</v>
+      </c>
+      <c r="AA10">
+        <v>0.16</v>
       </c>
       <c r="AC10" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1674,22 +1833,25 @@
       <c r="AG10">
         <v>4.311797142028809</v>
       </c>
-      <c r="AH10" t="s">
-        <v>141</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300331</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-3.71</v>
@@ -1707,7 +1869,7 @@
         <v>170886.69</v>
       </c>
       <c r="J11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K11">
         <v>13</v>
@@ -1749,10 +1911,25 @@
         <v>-1.42</v>
       </c>
       <c r="X11" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y11">
+        <v>-0.13</v>
+      </c>
+      <c r="Z11">
+        <v>39.39</v>
+      </c>
+      <c r="AA11">
+        <v>5.46</v>
       </c>
       <c r="AC11" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1760,22 +1937,25 @@
       <c r="AG11">
         <v>4.549020767211914</v>
       </c>
-      <c r="AH11" t="s">
-        <v>141</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300450</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>7.49</v>
@@ -1793,7 +1973,7 @@
         <v>1357513.01</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K12">
         <v>18</v>
@@ -1835,10 +2015,25 @@
         <v>-0.13</v>
       </c>
       <c r="X12" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Y12">
+        <v>7.27</v>
+      </c>
+      <c r="Z12">
+        <v>68.76000000000001</v>
+      </c>
+      <c r="AA12">
+        <v>8.630000000000001</v>
       </c>
       <c r="AC12" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1846,22 +2041,25 @@
       <c r="AG12">
         <v>2.949173450469971</v>
       </c>
-      <c r="AH12" t="s">
-        <v>141</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300457</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>4.08</v>
@@ -1879,7 +2077,7 @@
         <v>212210.98</v>
       </c>
       <c r="J13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K13">
         <v>16</v>
@@ -1921,10 +2119,25 @@
         <v>-0.14</v>
       </c>
       <c r="X13" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Y13">
+        <v>0.57</v>
+      </c>
+      <c r="Z13">
+        <v>36.6</v>
+      </c>
+      <c r="AA13">
+        <v>3.92</v>
       </c>
       <c r="AC13" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1932,22 +2145,25 @@
       <c r="AG13">
         <v>9.343036651611328</v>
       </c>
-      <c r="AH13" t="s">
-        <v>141</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300469</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-0.29</v>
@@ -1965,7 +2181,7 @@
         <v>112047.39</v>
       </c>
       <c r="J14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K14">
         <v>24</v>
@@ -2007,10 +2223,25 @@
         <v>0.04</v>
       </c>
       <c r="X14" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="Y14">
+        <v>-2.89</v>
+      </c>
+      <c r="Z14">
+        <v>86.48999999999999</v>
+      </c>
+      <c r="AA14">
+        <v>-0.39</v>
       </c>
       <c r="AC14" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2018,22 +2249,25 @@
       <c r="AG14">
         <v>6.91133975982666</v>
       </c>
-      <c r="AH14" t="s">
-        <v>141</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300475</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-4.92</v>
@@ -2051,7 +2285,7 @@
         <v>472015.97</v>
       </c>
       <c r="J15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K15">
         <v>13</v>
@@ -2093,10 +2327,25 @@
         <v>-0.39</v>
       </c>
       <c r="X15" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y15">
+        <v>1.98</v>
+      </c>
+      <c r="Z15">
+        <v>86.66</v>
+      </c>
+      <c r="AA15">
+        <v>3.97</v>
       </c>
       <c r="AC15" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2104,22 +2353,25 @@
       <c r="AG15">
         <v>2.596393585205078</v>
       </c>
-      <c r="AH15" t="s">
-        <v>141</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300507</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>0.6</v>
@@ -2137,7 +2389,7 @@
         <v>110144.22</v>
       </c>
       <c r="J16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -2179,10 +2431,25 @@
         <v>0.37</v>
       </c>
       <c r="X16" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y16">
+        <v>0.89</v>
+      </c>
+      <c r="Z16">
+        <v>10.38</v>
+      </c>
+      <c r="AA16">
+        <v>2.37</v>
       </c>
       <c r="AC16" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2190,22 +2457,25 @@
       <c r="AG16">
         <v>4.490048885345459</v>
       </c>
-      <c r="AH16" t="s">
-        <v>141</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300539</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>1.34</v>
@@ -2223,7 +2493,7 @@
         <v>144249.82</v>
       </c>
       <c r="J17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K17">
         <v>13</v>
@@ -2265,10 +2535,25 @@
         <v>0.05</v>
       </c>
       <c r="X17" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y17">
+        <v>0.65</v>
+      </c>
+      <c r="Z17">
+        <v>51.88</v>
+      </c>
+      <c r="AA17">
+        <v>5.6</v>
       </c>
       <c r="AC17" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2276,22 +2561,25 @@
       <c r="AG17">
         <v>2.037208080291748</v>
       </c>
-      <c r="AH17" t="s">
-        <v>141</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300602</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-2.95</v>
@@ -2309,7 +2597,7 @@
         <v>165933.25</v>
       </c>
       <c r="J18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K18">
         <v>4</v>
@@ -2351,10 +2639,25 @@
         <v>-1.15</v>
       </c>
       <c r="X18" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y18">
+        <v>-0.64</v>
+      </c>
+      <c r="Z18">
+        <v>34.58</v>
+      </c>
+      <c r="AA18">
+        <v>1.05</v>
       </c>
       <c r="AC18" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2362,22 +2665,25 @@
       <c r="AG18">
         <v>5.531270503997803</v>
       </c>
-      <c r="AH18" t="s">
-        <v>141</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300604</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>20</v>
@@ -2395,7 +2701,7 @@
         <v>424069.71</v>
       </c>
       <c r="J19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K19">
         <v>20</v>
@@ -2437,10 +2743,25 @@
         <v>1.46</v>
       </c>
       <c r="X19" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y19">
+        <v>20</v>
+      </c>
+      <c r="Z19">
+        <v>96.31999999999999</v>
+      </c>
+      <c r="AA19">
+        <v>20</v>
       </c>
       <c r="AC19" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2448,22 +2769,25 @@
       <c r="AG19">
         <v>5.783754348754883</v>
       </c>
-      <c r="AH19" t="s">
-        <v>141</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300620</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-1.85</v>
@@ -2481,7 +2805,7 @@
         <v>446696.35</v>
       </c>
       <c r="J20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K20">
         <v>10</v>
@@ -2523,10 +2847,25 @@
         <v>-0.83</v>
       </c>
       <c r="X20" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="Y20">
+        <v>-8.140000000000001</v>
+      </c>
+      <c r="Z20">
+        <v>128.15</v>
+      </c>
+      <c r="AA20">
+        <v>-5.54</v>
       </c>
       <c r="AC20" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2534,22 +2873,25 @@
       <c r="AG20">
         <v>-1.569183826446533</v>
       </c>
-      <c r="AH20" t="s">
-        <v>141</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300680</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>6.93</v>
@@ -2567,7 +2909,7 @@
         <v>142879.68</v>
       </c>
       <c r="J21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K21">
         <v>9</v>
@@ -2609,10 +2951,25 @@
         <v>0.49</v>
       </c>
       <c r="X21" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y21">
+        <v>2.41</v>
+      </c>
+      <c r="Z21">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="AA21">
+        <v>4.05</v>
       </c>
       <c r="AC21" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2620,22 +2977,25 @@
       <c r="AG21">
         <v>6.670866966247559</v>
       </c>
-      <c r="AH21" t="s">
-        <v>141</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300814</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-0.67</v>
@@ -2653,7 +3013,7 @@
         <v>145411.29</v>
       </c>
       <c r="J22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K22">
         <v>6</v>
@@ -2695,10 +3055,25 @@
         <v>1.3</v>
       </c>
       <c r="X22" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="Y22">
+        <v>-0.95</v>
+      </c>
+      <c r="Z22">
+        <v>52.49</v>
+      </c>
+      <c r="AA22">
+        <v>1.61</v>
       </c>
       <c r="AC22" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2706,22 +3081,25 @@
       <c r="AG22">
         <v>5.593056678771973</v>
       </c>
-      <c r="AH22" t="s">
-        <v>141</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300857</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-3.46</v>
@@ -2739,7 +3117,7 @@
         <v>441485.31</v>
       </c>
       <c r="J23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K23">
         <v>23</v>
@@ -2781,10 +3159,25 @@
         <v>-0.31</v>
       </c>
       <c r="X23" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y23">
+        <v>1.79</v>
+      </c>
+      <c r="Z23">
+        <v>174.4</v>
+      </c>
+      <c r="AA23">
+        <v>3.21</v>
       </c>
       <c r="AC23" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2792,22 +3185,25 @@
       <c r="AG23">
         <v>1.165292739868164</v>
       </c>
-      <c r="AH23" t="s">
-        <v>141</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300959</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-0.75</v>
@@ -2825,7 +3221,7 @@
         <v>103370.74</v>
       </c>
       <c r="J24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K24">
         <v>6</v>
@@ -2867,10 +3263,25 @@
         <v>1.2</v>
       </c>
       <c r="X24" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="Y24">
+        <v>-2.64</v>
+      </c>
+      <c r="Z24">
+        <v>82</v>
+      </c>
+      <c r="AA24">
+        <v>3.27</v>
       </c>
       <c r="AC24" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2878,22 +3289,25 @@
       <c r="AG24">
         <v>5.353669166564941</v>
       </c>
-      <c r="AH24" t="s">
-        <v>141</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300969</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>15.26</v>
@@ -2911,7 +3325,7 @@
         <v>93249.50999999999</v>
       </c>
       <c r="J25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K25">
         <v>5</v>
@@ -2953,10 +3367,25 @@
         <v>-0.39</v>
       </c>
       <c r="X25" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y25">
+        <v>-2.16</v>
+      </c>
+      <c r="Z25">
+        <v>137.47</v>
+      </c>
+      <c r="AA25">
+        <v>-1.1</v>
       </c>
       <c r="AC25" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2964,22 +3393,25 @@
       <c r="AG25">
         <v>-13.75404167175293</v>
       </c>
-      <c r="AH25" t="s">
-        <v>141</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300993</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-4.69</v>
@@ -2997,7 +3429,7 @@
         <v>75940.38</v>
       </c>
       <c r="J26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -3038,8 +3470,23 @@
       <c r="W26">
         <v>-0.35</v>
       </c>
+      <c r="Y26">
+        <v>-10.81</v>
+      </c>
+      <c r="Z26">
+        <v>21.17</v>
+      </c>
+      <c r="AA26">
+        <v>-0.89</v>
+      </c>
       <c r="AC26" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3047,22 +3494,25 @@
       <c r="AG26">
         <v>189.0541076660156</v>
       </c>
-      <c r="AH26" t="s">
-        <v>141</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>301008</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>8.16</v>
@@ -3080,7 +3530,7 @@
         <v>106386.21</v>
       </c>
       <c r="J27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K27">
         <v>6</v>
@@ -3122,10 +3572,25 @@
         <v>0.2</v>
       </c>
       <c r="X27" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y27">
+        <v>-5.74</v>
+      </c>
+      <c r="Z27">
+        <v>51.74</v>
+      </c>
+      <c r="AA27">
+        <v>-1.37</v>
       </c>
       <c r="AC27" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3133,22 +3598,25 @@
       <c r="AG27">
         <v>-1.953032970428467</v>
       </c>
-      <c r="AH27" t="s">
-        <v>141</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>301013</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-2.89</v>
@@ -3166,7 +3634,7 @@
         <v>205978.32</v>
       </c>
       <c r="J28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -3208,10 +3676,25 @@
         <v>0.26</v>
       </c>
       <c r="X28" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y28">
+        <v>-4.52</v>
+      </c>
+      <c r="Z28">
+        <v>29.48</v>
+      </c>
+      <c r="AA28">
+        <v>-0.47</v>
       </c>
       <c r="AC28" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3219,22 +3702,25 @@
       <c r="AG28">
         <v>5.209341049194336</v>
       </c>
-      <c r="AH28" t="s">
-        <v>141</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>301307</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>0.28</v>
@@ -3252,7 +3738,7 @@
         <v>81516.88</v>
       </c>
       <c r="J29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K29">
         <v>10</v>
@@ -3294,10 +3780,25 @@
         <v>0.45</v>
       </c>
       <c r="X29" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y29">
+        <v>-0.45</v>
+      </c>
+      <c r="Z29">
+        <v>43.21</v>
+      </c>
+      <c r="AA29">
+        <v>7.73</v>
       </c>
       <c r="AC29" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3305,22 +3806,25 @@
       <c r="AG29">
         <v>4.634857177734375</v>
       </c>
-      <c r="AH29" t="s">
-        <v>141</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>301308</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>2.56</v>
@@ -3338,7 +3842,7 @@
         <v>358301.82</v>
       </c>
       <c r="J30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -3380,10 +3884,25 @@
         <v>0.39</v>
       </c>
       <c r="X30" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y30">
+        <v>4.55</v>
+      </c>
+      <c r="Z30">
+        <v>157.77</v>
+      </c>
+      <c r="AA30">
+        <v>9.33</v>
       </c>
       <c r="AC30" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3391,22 +3910,25 @@
       <c r="AG30">
         <v>-0.6565536260604858</v>
       </c>
-      <c r="AH30" t="s">
-        <v>141</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>301319</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>6.23</v>
@@ -3424,7 +3946,7 @@
         <v>78340.7</v>
       </c>
       <c r="J31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -3466,10 +3988,25 @@
         <v>0.7</v>
       </c>
       <c r="X31" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Y31">
+        <v>4.03</v>
+      </c>
+      <c r="Z31">
+        <v>47.4</v>
+      </c>
+      <c r="AA31">
+        <v>6.04</v>
       </c>
       <c r="AC31" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3477,22 +4014,25 @@
       <c r="AG31">
         <v>2.531682252883911</v>
       </c>
-      <c r="AH31" t="s">
-        <v>141</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>301389</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-2.13</v>
@@ -3510,7 +4050,7 @@
         <v>127175.49</v>
       </c>
       <c r="J32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K32">
         <v>6</v>
@@ -3552,10 +4092,25 @@
         <v>-0.6899999999999999</v>
       </c>
       <c r="X32" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="Y32">
+        <v>-4.11</v>
+      </c>
+      <c r="Z32">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="AA32">
+        <v>-2.6</v>
       </c>
       <c r="AC32" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3563,22 +4118,25 @@
       <c r="AG32">
         <v>-5.006891250610352</v>
       </c>
-      <c r="AH32" t="s">
-        <v>141</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>301421</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>20</v>
@@ -3596,7 +4154,7 @@
         <v>265573.99</v>
       </c>
       <c r="J33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -3638,10 +4196,25 @@
         <v>1.63</v>
       </c>
       <c r="X33" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y33">
+        <v>-1.47</v>
+      </c>
+      <c r="Z33">
+        <v>142.09</v>
+      </c>
+      <c r="AA33">
+        <v>9.640000000000001</v>
       </c>
       <c r="AC33" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>1</v>
@@ -3649,22 +4222,25 @@
       <c r="AG33">
         <v>19.29969215393066</v>
       </c>
-      <c r="AH33" t="s">
-        <v>140</v>
+      <c r="AH33">
+        <v>1</v>
+      </c>
+      <c r="AI33">
+        <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>301488</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>4.38</v>
@@ -3682,7 +4258,7 @@
         <v>130439.4</v>
       </c>
       <c r="J34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K34">
         <v>20</v>
@@ -3724,10 +4300,25 @@
         <v>0.31</v>
       </c>
       <c r="X34" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y34">
+        <v>-7.34</v>
+      </c>
+      <c r="Z34">
+        <v>187</v>
+      </c>
+      <c r="AA34">
+        <v>-2.8</v>
       </c>
       <c r="AC34" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3735,22 +4326,25 @@
       <c r="AG34">
         <v>-2.214694261550903</v>
       </c>
-      <c r="AH34" t="s">
-        <v>141</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>301489</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>0.15</v>
@@ -3768,7 +4362,7 @@
         <v>125220.6</v>
       </c>
       <c r="J35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K35">
         <v>11</v>
@@ -3810,10 +4404,25 @@
         <v>-0.4</v>
       </c>
       <c r="X35" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y35">
+        <v>1.86</v>
+      </c>
+      <c r="Z35">
+        <v>275.28</v>
+      </c>
+      <c r="AA35">
+        <v>2.57</v>
       </c>
       <c r="AC35" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3821,22 +4430,25 @@
       <c r="AG35">
         <v>-1.116053223609924</v>
       </c>
-      <c r="AH35" t="s">
-        <v>141</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>301550</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>1.49</v>
@@ -3854,7 +4466,7 @@
         <v>72533.63</v>
       </c>
       <c r="J36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K36">
         <v>5</v>
@@ -3896,10 +4508,25 @@
         <v>0.02</v>
       </c>
       <c r="X36" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y36">
+        <v>2.55</v>
+      </c>
+      <c r="Z36">
+        <v>136.88</v>
+      </c>
+      <c r="AA36">
+        <v>3.37</v>
       </c>
       <c r="AC36" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3907,22 +4534,25 @@
       <c r="AG36">
         <v>5.359548091888428</v>
       </c>
-      <c r="AH36" t="s">
-        <v>141</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>688028</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-3.37</v>
@@ -3940,7 +4570,7 @@
         <v>54338.09</v>
       </c>
       <c r="J37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K37">
         <v>12</v>
@@ -3982,10 +4612,25 @@
         <v>0.26</v>
       </c>
       <c r="X37" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y37">
+        <v>4.76</v>
+      </c>
+      <c r="Z37">
+        <v>53.67</v>
+      </c>
+      <c r="AA37">
+        <v>9.529999999999999</v>
       </c>
       <c r="AC37" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD37">
+        <v>1</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>1</v>
@@ -3993,22 +4638,25 @@
       <c r="AG37">
         <v>6.85353946685791</v>
       </c>
-      <c r="AH37" t="s">
-        <v>140</v>
+      <c r="AH37">
+        <v>1</v>
+      </c>
+      <c r="AI37">
+        <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>688041</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-2.51</v>
@@ -4026,7 +4674,7 @@
         <v>1375296.61</v>
       </c>
       <c r="J38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -4068,10 +4716,25 @@
         <v>-0.08</v>
       </c>
       <c r="X38" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y38">
+        <v>2.05</v>
+      </c>
+      <c r="Z38">
+        <v>267</v>
+      </c>
+      <c r="AA38">
+        <v>4.85</v>
       </c>
       <c r="AC38" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4079,22 +4742,25 @@
       <c r="AG38">
         <v>150.7274780273438</v>
       </c>
-      <c r="AH38" t="s">
-        <v>141</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>688123</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>11.22</v>
@@ -4112,7 +4778,7 @@
         <v>269944.32</v>
       </c>
       <c r="J39" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -4154,10 +4820,25 @@
         <v>-0.83</v>
       </c>
       <c r="X39" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="Y39">
+        <v>6.92</v>
+      </c>
+      <c r="Z39">
+        <v>133.82</v>
+      </c>
+      <c r="AA39">
+        <v>11.52</v>
       </c>
       <c r="AC39" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4165,22 +4846,25 @@
       <c r="AG39">
         <v>-16.84319496154785</v>
       </c>
-      <c r="AH39" t="s">
-        <v>141</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688135</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>8.07</v>
@@ -4198,7 +4882,7 @@
         <v>125167.97</v>
       </c>
       <c r="J40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K40">
         <v>16</v>
@@ -4240,10 +4924,25 @@
         <v>0.77</v>
       </c>
       <c r="X40" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y40">
+        <v>-0.05</v>
+      </c>
+      <c r="Z40">
+        <v>39.48</v>
+      </c>
+      <c r="AA40">
+        <v>3.4</v>
       </c>
       <c r="AC40" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4251,22 +4950,25 @@
       <c r="AG40">
         <v>-29.08587455749512</v>
       </c>
-      <c r="AH40" t="s">
-        <v>141</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688147</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>4.44</v>
@@ -4284,7 +4986,7 @@
         <v>63639.98</v>
       </c>
       <c r="J41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K41">
         <v>27</v>
@@ -4326,10 +5028,25 @@
         <v>0.72</v>
       </c>
       <c r="X41" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="Y41">
+        <v>15.54</v>
+      </c>
+      <c r="Z41">
+        <v>59.62</v>
+      </c>
+      <c r="AA41">
+        <v>20.01</v>
       </c>
       <c r="AC41" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4337,22 +5054,25 @@
       <c r="AG41">
         <v>-3.786639213562012</v>
       </c>
-      <c r="AH41" t="s">
-        <v>141</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688167</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-0.83</v>
@@ -4370,7 +5090,7 @@
         <v>134353.37</v>
       </c>
       <c r="J42" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K42">
         <v>13</v>
@@ -4412,10 +5132,25 @@
         <v>-1.05</v>
       </c>
       <c r="X42" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y42">
+        <v>-0.26</v>
+      </c>
+      <c r="Z42">
+        <v>171.74</v>
+      </c>
+      <c r="AA42">
+        <v>1.02</v>
       </c>
       <c r="AC42" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4423,22 +5158,25 @@
       <c r="AG42">
         <v>3.065047025680542</v>
       </c>
-      <c r="AH42" t="s">
-        <v>141</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688195</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>0.7</v>
@@ -4456,7 +5194,7 @@
         <v>183603.62</v>
       </c>
       <c r="J43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K43">
         <v>27</v>
@@ -4498,10 +5236,25 @@
         <v>-0.41</v>
       </c>
       <c r="X43" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="Y43">
+        <v>-4.47</v>
+      </c>
+      <c r="Z43">
+        <v>142</v>
+      </c>
+      <c r="AA43">
+        <v>-1.39</v>
       </c>
       <c r="AC43" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4509,22 +5262,25 @@
       <c r="AG43">
         <v>2.799214601516724</v>
       </c>
-      <c r="AH43" t="s">
-        <v>141</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688205</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-10.14</v>
@@ -4542,7 +5298,7 @@
         <v>315660.8</v>
       </c>
       <c r="J44" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K44">
         <v>5</v>
@@ -4584,10 +5340,25 @@
         <v>0.14</v>
       </c>
       <c r="X44" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="Y44">
+        <v>-2.71</v>
+      </c>
+      <c r="Z44">
+        <v>131.99</v>
+      </c>
+      <c r="AA44">
+        <v>-0.76</v>
       </c>
       <c r="AC44" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>1</v>
@@ -4595,22 +5366,25 @@
       <c r="AG44">
         <v>12.24167346954346</v>
       </c>
-      <c r="AH44" t="s">
-        <v>140</v>
+      <c r="AH44">
+        <v>1</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688228</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-12.29</v>
@@ -4628,7 +5402,7 @@
         <v>93870.63</v>
       </c>
       <c r="J45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K45">
         <v>10</v>
@@ -4670,10 +5444,25 @@
         <v>0.34</v>
       </c>
       <c r="X45" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="Y45">
+        <v>2.27</v>
+      </c>
+      <c r="Z45">
+        <v>200.88</v>
+      </c>
+      <c r="AA45">
+        <v>7.02</v>
       </c>
       <c r="AC45" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>1</v>
@@ -4681,22 +5470,25 @@
       <c r="AG45">
         <v>17.73115539550781</v>
       </c>
-      <c r="AH45" t="s">
-        <v>140</v>
+      <c r="AH45">
+        <v>1</v>
+      </c>
+      <c r="AI45">
+        <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688330</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>10.87</v>
@@ -4714,7 +5506,7 @@
         <v>84392.06</v>
       </c>
       <c r="J46" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -4755,8 +5547,23 @@
       <c r="W46">
         <v>0.48</v>
       </c>
+      <c r="Y46">
+        <v>-7.73</v>
+      </c>
+      <c r="Z46">
+        <v>43.2</v>
+      </c>
+      <c r="AA46">
+        <v>-4.36</v>
+      </c>
       <c r="AC46" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4764,22 +5571,25 @@
       <c r="AG46">
         <v>1.856754183769226</v>
       </c>
-      <c r="AH46" t="s">
-        <v>141</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688332</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>8</v>
@@ -4797,7 +5607,7 @@
         <v>200163.72</v>
       </c>
       <c r="J47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -4838,8 +5648,23 @@
       <c r="W47">
         <v>-0.49</v>
       </c>
+      <c r="Y47">
+        <v>0.21</v>
+      </c>
+      <c r="Z47">
+        <v>156.38</v>
+      </c>
+      <c r="AA47">
+        <v>3.56</v>
+      </c>
       <c r="AC47" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4847,22 +5672,25 @@
       <c r="AG47">
         <v>7.620032787322998</v>
       </c>
-      <c r="AH47" t="s">
-        <v>141</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688400</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-2.54</v>
@@ -4880,7 +5708,7 @@
         <v>171231.54</v>
       </c>
       <c r="J48" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K48">
         <v>9</v>
@@ -4922,10 +5750,25 @@
         <v>-0.01</v>
       </c>
       <c r="X48" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y48">
+        <v>-5.28</v>
+      </c>
+      <c r="Z48">
+        <v>51.68</v>
+      </c>
+      <c r="AA48">
+        <v>-1.11</v>
       </c>
       <c r="AC48" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4933,22 +5776,25 @@
       <c r="AG48">
         <v>3.806577444076538</v>
       </c>
-      <c r="AH48" t="s">
-        <v>141</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688411</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>18.59</v>
@@ -4966,7 +5812,7 @@
         <v>129053.49</v>
       </c>
       <c r="J49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K49">
         <v>16</v>
@@ -5008,10 +5854,25 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="X49" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="Y49">
+        <v>4.3</v>
+      </c>
+      <c r="Z49">
+        <v>278.2</v>
+      </c>
+      <c r="AA49">
+        <v>7.88</v>
       </c>
       <c r="AC49" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD49">
+        <v>1</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
       </c>
       <c r="AF49">
         <v>1</v>
@@ -5019,22 +5880,25 @@
       <c r="AG49">
         <v>28.60551071166992</v>
       </c>
-      <c r="AH49" t="s">
-        <v>141</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688521</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>1.48</v>
@@ -5052,7 +5916,7 @@
         <v>641987.38</v>
       </c>
       <c r="J50" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K50">
         <v>15</v>
@@ -5094,10 +5958,25 @@
         <v>-0.31</v>
       </c>
       <c r="X50" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y50">
+        <v>-3.35</v>
+      </c>
+      <c r="Z50">
+        <v>205.88</v>
+      </c>
+      <c r="AA50">
+        <v>-0.06</v>
       </c>
       <c r="AC50" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5105,22 +5984,25 @@
       <c r="AG50">
         <v>0.06178295612335205</v>
       </c>
-      <c r="AH50" t="s">
-        <v>141</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688525</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>3.57</v>
@@ -5138,7 +6020,7 @@
         <v>365130.14</v>
       </c>
       <c r="J51" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -5180,10 +6062,25 @@
         <v>0.88</v>
       </c>
       <c r="X51" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y51">
+        <v>6.51</v>
+      </c>
+      <c r="Z51">
+        <v>95.18000000000001</v>
+      </c>
+      <c r="AA51">
+        <v>8.779999999999999</v>
       </c>
       <c r="AC51" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5191,22 +6088,25 @@
       <c r="AG51">
         <v>-4.536316871643066</v>
       </c>
-      <c r="AH51" t="s">
-        <v>141</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688627</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>16.97</v>
@@ -5224,7 +6124,7 @@
         <v>131486.94</v>
       </c>
       <c r="J52" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K52">
         <v>8</v>
@@ -5266,10 +6166,25 @@
         <v>0.06</v>
       </c>
       <c r="X52" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y52">
+        <v>1.13</v>
+      </c>
+      <c r="Z52">
+        <v>188.95</v>
+      </c>
+      <c r="AA52">
+        <v>5.58</v>
       </c>
       <c r="AC52" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5277,22 +6192,25 @@
       <c r="AG52">
         <v>12.84327411651611</v>
       </c>
-      <c r="AH52" t="s">
-        <v>141</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688629</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>-3.62</v>
@@ -5310,7 +6228,7 @@
         <v>213945.2</v>
       </c>
       <c r="J53" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K53">
         <v>9</v>
@@ -5352,10 +6270,25 @@
         <v>-0.99</v>
       </c>
       <c r="X53" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="Y53">
+        <v>-0.78</v>
+      </c>
+      <c r="Z53">
+        <v>103.62</v>
+      </c>
+      <c r="AA53">
+        <v>-0.17</v>
       </c>
       <c r="AC53" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5363,22 +6296,25 @@
       <c r="AG53">
         <v>1.095970511436462</v>
       </c>
-      <c r="AH53" t="s">
-        <v>141</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688662</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-3.13</v>
@@ -5396,7 +6332,7 @@
         <v>40265.91</v>
       </c>
       <c r="J54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -5437,8 +6373,23 @@
       <c r="W54">
         <v>-0.75</v>
       </c>
+      <c r="Y54">
+        <v>-0.99</v>
+      </c>
+      <c r="Z54">
+        <v>53.25</v>
+      </c>
+      <c r="AA54">
+        <v>-0.06</v>
+      </c>
       <c r="AC54" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5446,22 +6397,25 @@
       <c r="AG54">
         <v>5.986212730407715</v>
       </c>
-      <c r="AH54" t="s">
-        <v>141</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688678</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>1.78</v>
@@ -5479,7 +6433,7 @@
         <v>83790.57000000001</v>
       </c>
       <c r="J55" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K55">
         <v>4</v>
@@ -5521,10 +6475,25 @@
         <v>0.67</v>
       </c>
       <c r="X55" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="Y55">
+        <v>-3.26</v>
+      </c>
+      <c r="Z55">
+        <v>37.37</v>
+      </c>
+      <c r="AA55">
+        <v>0.59</v>
       </c>
       <c r="AC55" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5532,22 +6501,25 @@
       <c r="AG55">
         <v>4.413395881652832</v>
       </c>
-      <c r="AH55" t="s">
-        <v>141</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688766</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-2.05</v>
@@ -5565,7 +6537,7 @@
         <v>157968.51</v>
       </c>
       <c r="J56" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K56">
         <v>6</v>
@@ -5607,10 +6579,25 @@
         <v>-0.03</v>
       </c>
       <c r="X56" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y56">
+        <v>2.35</v>
+      </c>
+      <c r="Z56">
+        <v>110.49</v>
+      </c>
+      <c r="AA56">
+        <v>3.75</v>
       </c>
       <c r="AC56" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5618,22 +6605,25 @@
       <c r="AG56">
         <v>-5.844079494476318</v>
       </c>
-      <c r="AH56" t="s">
-        <v>141</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688981</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-0.32</v>
@@ -5651,7 +6641,7 @@
         <v>1812012.24</v>
       </c>
       <c r="J57" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K57">
         <v>9</v>
@@ -5693,10 +6683,25 @@
         <v>-0.67</v>
       </c>
       <c r="X57" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="Y57">
+        <v>5.03</v>
+      </c>
+      <c r="Z57">
+        <v>137.98</v>
+      </c>
+      <c r="AA57">
+        <v>7.37</v>
       </c>
       <c r="AC57" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5704,8 +6709,11 @@
       <c r="AG57">
         <v>12.46695423126221</v>
       </c>
-      <c r="AH57" t="s">
-        <v>141</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
